--- a/Code/Results/Cases/Case_8_48/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_48/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.12475758472483</v>
+        <v>15.10704658515591</v>
       </c>
       <c r="C2">
-        <v>7.829852502488004</v>
+        <v>8.781203518527304</v>
       </c>
       <c r="D2">
-        <v>5.556016743821515</v>
+        <v>5.159915432165771</v>
       </c>
       <c r="E2">
-        <v>6.479931100867869</v>
+        <v>6.758952370559741</v>
       </c>
       <c r="F2">
-        <v>31.12175161583836</v>
+        <v>28.17641249866981</v>
       </c>
       <c r="G2">
-        <v>2.128942791616604</v>
+        <v>7.171049155759547</v>
       </c>
       <c r="H2">
-        <v>2.969031593702331</v>
+        <v>2.528207393170462</v>
       </c>
       <c r="I2">
-        <v>3.882931398946077</v>
+        <v>3.396630961165279</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>23.03480263869706</v>
+        <v>20.59378331725539</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.43697362617855</v>
       </c>
       <c r="M2">
-        <v>13.24812992146968</v>
+        <v>14.17678903236021</v>
       </c>
       <c r="N2">
-        <v>7.363286429088993</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>12.91014706099369</v>
       </c>
       <c r="P2">
-        <v>15.3088159018085</v>
+        <v>7.598046781823281</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>14.31973979770841</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.16111630807543</v>
+        <v>14.20007119695269</v>
       </c>
       <c r="C3">
-        <v>7.275085952361366</v>
+        <v>8.182618392126843</v>
       </c>
       <c r="D3">
-        <v>5.530717492628291</v>
+        <v>5.092774140366359</v>
       </c>
       <c r="E3">
-        <v>6.182318847677325</v>
+        <v>6.535849908088038</v>
       </c>
       <c r="F3">
-        <v>30.19300165456121</v>
+        <v>27.34725064596349</v>
       </c>
       <c r="G3">
-        <v>2.134362474118407</v>
+        <v>7.835826509419422</v>
       </c>
       <c r="H3">
-        <v>3.217609175716278</v>
+        <v>2.734438410839412</v>
       </c>
       <c r="I3">
-        <v>4.097213577937551</v>
+        <v>3.562924274583835</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>22.62641282996246</v>
+        <v>20.29034416063514</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.34963622851712</v>
       </c>
       <c r="M3">
-        <v>12.50421565254773</v>
+        <v>13.82049406205109</v>
       </c>
       <c r="N3">
-        <v>7.042560938413597</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>12.08098240137091</v>
       </c>
       <c r="P3">
-        <v>15.3771877998005</v>
+        <v>7.292440608363532</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>14.40925066536405</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.53751614561811</v>
+        <v>13.61008794855628</v>
       </c>
       <c r="C4">
-        <v>6.919385396549357</v>
+        <v>7.797412228001471</v>
       </c>
       <c r="D4">
-        <v>5.513829602644453</v>
+        <v>5.049946349741026</v>
       </c>
       <c r="E4">
-        <v>5.991648812393153</v>
+        <v>6.393510145394949</v>
       </c>
       <c r="F4">
-        <v>29.61461585313139</v>
+        <v>26.82621792371995</v>
       </c>
       <c r="G4">
-        <v>2.137798064063904</v>
+        <v>8.257828988600005</v>
       </c>
       <c r="H4">
-        <v>3.375553230460178</v>
+        <v>2.865701780877674</v>
       </c>
       <c r="I4">
-        <v>4.233903608111734</v>
+        <v>3.669568112739252</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>22.37299847112577</v>
+        <v>20.09979565250895</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>16.28898987882102</v>
       </c>
       <c r="M4">
-        <v>12.02732762787344</v>
+        <v>13.61285299587453</v>
       </c>
       <c r="N4">
-        <v>6.838228410106753</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>11.54396100209363</v>
       </c>
       <c r="P4">
-        <v>15.41952366099357</v>
+        <v>7.098333733840873</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>14.46403934132707</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.26871846347826</v>
+        <v>13.35489485977524</v>
       </c>
       <c r="C5">
-        <v>6.776149786626452</v>
+        <v>7.64120938197943</v>
       </c>
       <c r="D5">
-        <v>5.506504345719232</v>
+        <v>5.032389967994574</v>
       </c>
       <c r="E5">
-        <v>5.91024212203794</v>
+        <v>6.332757724049973</v>
       </c>
       <c r="F5">
-        <v>29.36278697875099</v>
+        <v>26.59729907011221</v>
       </c>
       <c r="G5">
-        <v>2.139236602483477</v>
+        <v>8.434669155708836</v>
       </c>
       <c r="H5">
-        <v>3.441768062855775</v>
+        <v>2.920789309496546</v>
       </c>
       <c r="I5">
-        <v>4.293482924990695</v>
+        <v>3.717214521315089</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>22.25816107774334</v>
+        <v>20.01092468031524</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>16.25388765414331</v>
       </c>
       <c r="M5">
-        <v>11.82571755751426</v>
+        <v>13.52447213434709</v>
       </c>
       <c r="N5">
-        <v>6.753340438973241</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>11.33763999785944</v>
       </c>
       <c r="P5">
-        <v>15.43346714721481</v>
+        <v>7.017850048242197</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>14.48351070017332</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.21532647451552</v>
+        <v>13.30406640969241</v>
       </c>
       <c r="C6">
-        <v>6.758911843622528</v>
+        <v>7.621391750662472</v>
       </c>
       <c r="D6">
-        <v>5.505148717520056</v>
+        <v>5.029824878934665</v>
       </c>
       <c r="E6">
-        <v>5.894493722002847</v>
+        <v>6.320849662162951</v>
       </c>
       <c r="F6">
-        <v>29.30330507307872</v>
+        <v>26.54223044133331</v>
       </c>
       <c r="G6">
-        <v>2.139490346375102</v>
+        <v>8.4658778332017</v>
       </c>
       <c r="H6">
-        <v>3.453443988805998</v>
+        <v>2.930513688337351</v>
       </c>
       <c r="I6">
-        <v>4.306728027773892</v>
+        <v>3.729090373479087</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>22.22563732366295</v>
+        <v>19.98364102455592</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>16.23743825195704</v>
       </c>
       <c r="M6">
-        <v>11.78904075458487</v>
+        <v>13.50163703758292</v>
       </c>
       <c r="N6">
-        <v>6.739354693674758</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>11.30018025339076</v>
       </c>
       <c r="P6">
-        <v>15.43164021198615</v>
+        <v>7.00459877222556</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>14.48330528963731</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.51176924787508</v>
+        <v>13.56625863006109</v>
       </c>
       <c r="C7">
-        <v>6.935481543918143</v>
+        <v>7.77104273602042</v>
       </c>
       <c r="D7">
-        <v>5.513442201192106</v>
+        <v>5.053126186145257</v>
       </c>
       <c r="E7">
-        <v>5.98488421568597</v>
+        <v>6.395259068088391</v>
       </c>
       <c r="F7">
-        <v>29.56374292295776</v>
+        <v>26.68942103967084</v>
       </c>
       <c r="G7">
-        <v>2.137852929576458</v>
+        <v>8.314051932741252</v>
       </c>
       <c r="H7">
-        <v>3.378052519490134</v>
+        <v>2.869870359868238</v>
       </c>
       <c r="I7">
-        <v>4.243396139316442</v>
+        <v>3.682736953132479</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>22.33502740947526</v>
+        <v>20.01551567710756</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>16.21939410491278</v>
       </c>
       <c r="M7">
-        <v>12.01682921586238</v>
+        <v>13.55490191736831</v>
       </c>
       <c r="N7">
-        <v>6.837679138960022</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>11.50570231330939</v>
       </c>
       <c r="P7">
-        <v>15.40843525874778</v>
+        <v>7.093826888889648</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>14.4399136576947</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.77188843892278</v>
+        <v>14.71603537404938</v>
       </c>
       <c r="C8">
-        <v>7.663442054454768</v>
+        <v>8.472314166335934</v>
       </c>
       <c r="D8">
-        <v>5.547356762735633</v>
+        <v>5.148081268424219</v>
       </c>
       <c r="E8">
-        <v>6.371866051704973</v>
+        <v>6.70056284118064</v>
       </c>
       <c r="F8">
-        <v>30.74286016858118</v>
+        <v>27.55466775311578</v>
       </c>
       <c r="G8">
-        <v>2.130834672290442</v>
+        <v>7.635387697396462</v>
       </c>
       <c r="H8">
-        <v>3.055692785464279</v>
+        <v>2.606646289283106</v>
       </c>
       <c r="I8">
-        <v>3.966901527156866</v>
+        <v>3.473274689386028</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>22.84752347541245</v>
+        <v>20.28783776655155</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>16.24624194561597</v>
       </c>
       <c r="M8">
-        <v>12.98620632799302</v>
+        <v>13.90659767434728</v>
       </c>
       <c r="N8">
-        <v>7.255038642280005</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>12.53844769299427</v>
       </c>
       <c r="P8">
-        <v>15.31762839606412</v>
+        <v>7.482262856840968</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>14.29064258561049</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.02157919387964</v>
+        <v>16.81090059305871</v>
       </c>
       <c r="C9">
-        <v>8.945016082478396</v>
+        <v>9.831998234074604</v>
       </c>
       <c r="D9">
-        <v>5.603334203528696</v>
+        <v>5.309867833588893</v>
       </c>
       <c r="E9">
-        <v>7.076809020270993</v>
+        <v>7.236715552429572</v>
       </c>
       <c r="F9">
-        <v>33.06038330038487</v>
+        <v>29.54980617005439</v>
       </c>
       <c r="G9">
-        <v>2.117840352522703</v>
+        <v>6.128443328405645</v>
       </c>
       <c r="H9">
-        <v>2.461863080194257</v>
+        <v>2.116798321874946</v>
       </c>
       <c r="I9">
-        <v>3.450055936510757</v>
+        <v>3.073126175530368</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.89137420644726</v>
+        <v>21.02497488954156</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.43908872847697</v>
       </c>
       <c r="M9">
-        <v>14.73475909929967</v>
+        <v>14.84063875654311</v>
       </c>
       <c r="N9">
-        <v>8.011337923729617</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>14.43502844066684</v>
       </c>
       <c r="P9">
-        <v>15.16220857325223</v>
+        <v>8.203509074987686</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>14.06627480608252</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.42981756198067</v>
+        <v>18.02880952131482</v>
       </c>
       <c r="C10">
-        <v>9.855427985424125</v>
+        <v>10.59414034790017</v>
       </c>
       <c r="D10">
-        <v>5.639825268523965</v>
+        <v>5.454855686011905</v>
       </c>
       <c r="E10">
-        <v>7.407742533498066</v>
+        <v>7.504397302174567</v>
       </c>
       <c r="F10">
-        <v>34.48020490433299</v>
+        <v>30.3106427815935</v>
       </c>
       <c r="G10">
-        <v>2.108960724445651</v>
+        <v>6.135452023691027</v>
       </c>
       <c r="H10">
-        <v>2.083540656865725</v>
+        <v>1.822308749503738</v>
       </c>
       <c r="I10">
-        <v>3.107853596931936</v>
+        <v>2.824666984930563</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>24.46855284156926</v>
+        <v>21.14480252256061</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.25251869847317</v>
       </c>
       <c r="M10">
-        <v>15.99145775980244</v>
+        <v>15.25116280345588</v>
       </c>
       <c r="N10">
-        <v>8.388799486023251</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>15.52523229540355</v>
       </c>
       <c r="P10">
-        <v>14.99405419801549</v>
+        <v>8.540194041525611</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>13.78572245915992</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.36072384558697</v>
+        <v>17.82816687910693</v>
       </c>
       <c r="C11">
-        <v>10.54012676014483</v>
+        <v>10.8371685631227</v>
       </c>
       <c r="D11">
-        <v>5.697930857900158</v>
+        <v>5.703171862553257</v>
       </c>
       <c r="E11">
-        <v>6.438558643495823</v>
+        <v>6.649123341888181</v>
       </c>
       <c r="F11">
-        <v>33.29586014178098</v>
+        <v>28.33302452451743</v>
       </c>
       <c r="G11">
-        <v>2.106584078028271</v>
+        <v>9.148586055742058</v>
       </c>
       <c r="H11">
-        <v>2.982860822811055</v>
+        <v>2.830217027355184</v>
       </c>
       <c r="I11">
-        <v>3.047095826309104</v>
+        <v>2.807775385504715</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.34866687035769</v>
+        <v>19.64827810899021</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.03653000195641</v>
       </c>
       <c r="M11">
-        <v>16.21690199910123</v>
+        <v>14.22591158073333</v>
       </c>
       <c r="N11">
-        <v>7.386944807321361</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>15.50148763733565</v>
       </c>
       <c r="P11">
-        <v>14.48513786493282</v>
+        <v>7.49325535820667</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>13.28525798561176</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.03409185771139</v>
+        <v>17.48266111180831</v>
       </c>
       <c r="C12">
-        <v>10.91408003307316</v>
+        <v>10.97688403105604</v>
       </c>
       <c r="D12">
-        <v>5.769779800158697</v>
+        <v>5.901974568548064</v>
       </c>
       <c r="E12">
-        <v>5.816595403085365</v>
+        <v>6.080423331665567</v>
       </c>
       <c r="F12">
-        <v>32.04209351446242</v>
+        <v>26.82113234744434</v>
       </c>
       <c r="G12">
-        <v>2.106261460262245</v>
+        <v>10.84259487913873</v>
       </c>
       <c r="H12">
-        <v>4.309919746753335</v>
+        <v>4.206952931110044</v>
       </c>
       <c r="I12">
-        <v>3.04481582847778</v>
+        <v>2.813488365515991</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>22.33182925021272</v>
+        <v>18.58482439059687</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.23127454046901</v>
       </c>
       <c r="M12">
-        <v>16.1524940323929</v>
+        <v>13.43273090523182</v>
       </c>
       <c r="N12">
-        <v>6.498573364153295</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>15.34146684695695</v>
       </c>
       <c r="P12">
-        <v>14.13483566545471</v>
+        <v>6.58953192407875</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>13.03163374701896</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.45266917544701</v>
+        <v>17.00670881305161</v>
       </c>
       <c r="C13">
-        <v>11.10419733340543</v>
+        <v>11.14778675994777</v>
       </c>
       <c r="D13">
-        <v>5.85314262773248</v>
+        <v>6.028343372447671</v>
       </c>
       <c r="E13">
-        <v>5.483933906425386</v>
+        <v>5.769984237005525</v>
       </c>
       <c r="F13">
-        <v>30.56849051254317</v>
+        <v>25.66772790241639</v>
       </c>
       <c r="G13">
-        <v>2.107551700335089</v>
+        <v>10.52058220715746</v>
       </c>
       <c r="H13">
-        <v>5.712656897238257</v>
+        <v>5.626480120176748</v>
       </c>
       <c r="I13">
-        <v>3.102473137748425</v>
+        <v>2.852764091924138</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>21.27324057111353</v>
+        <v>17.81885013190829</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>13.69379065551343</v>
       </c>
       <c r="M13">
-        <v>15.84953270514281</v>
+        <v>12.80627579000779</v>
       </c>
       <c r="N13">
-        <v>5.64898008675637</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>15.10450984897488</v>
       </c>
       <c r="P13">
-        <v>13.87114091083762</v>
+        <v>5.753940222732768</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>12.9250179293166</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.91685844884836</v>
+        <v>16.6008339315825</v>
       </c>
       <c r="C14">
-        <v>11.1621469906833</v>
+        <v>11.28681917431515</v>
       </c>
       <c r="D14">
-        <v>5.919432186094708</v>
+        <v>6.079151900299804</v>
       </c>
       <c r="E14">
-        <v>5.458366466097724</v>
+        <v>5.761199332042787</v>
       </c>
       <c r="F14">
-        <v>29.41518047624431</v>
+        <v>24.98916247732328</v>
       </c>
       <c r="G14">
-        <v>2.109183387169969</v>
+        <v>9.434045127032741</v>
       </c>
       <c r="H14">
-        <v>6.715326126538161</v>
+        <v>6.63290367110034</v>
       </c>
       <c r="I14">
-        <v>3.17249763094628</v>
+        <v>2.899233286214701</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>20.50641560029293</v>
+        <v>17.39416347683363</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.41610466652671</v>
       </c>
       <c r="M14">
-        <v>15.52354117372508</v>
+        <v>12.42958674851711</v>
       </c>
       <c r="N14">
-        <v>5.095672024772284</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>14.89652812680833</v>
       </c>
       <c r="P14">
-        <v>13.72954984034257</v>
+        <v>5.222926489681761</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>12.90298866217687</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.72347646333551</v>
+        <v>16.46340536558136</v>
       </c>
       <c r="C15">
-        <v>11.14285272853374</v>
+        <v>11.32851833581415</v>
       </c>
       <c r="D15">
-        <v>5.935029699311949</v>
+        <v>6.072784619635892</v>
       </c>
       <c r="E15">
-        <v>5.472220510802553</v>
+        <v>5.787010805300739</v>
       </c>
       <c r="F15">
-        <v>29.07240904147427</v>
+        <v>24.86894774451649</v>
       </c>
       <c r="G15">
-        <v>2.109953881196121</v>
+        <v>8.827727751940916</v>
       </c>
       <c r="H15">
-        <v>6.951216232995068</v>
+        <v>6.86734181597856</v>
       </c>
       <c r="I15">
-        <v>3.207368048619893</v>
+        <v>2.923843005947959</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>20.29996466419922</v>
+        <v>17.32870081196557</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.38308622204119</v>
       </c>
       <c r="M15">
-        <v>15.38923170792435</v>
+        <v>12.35695340660792</v>
       </c>
       <c r="N15">
-        <v>4.965696729423424</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>14.82222874146865</v>
       </c>
       <c r="P15">
-        <v>13.70769845557783</v>
+        <v>5.103082454949886</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>12.91494117371439</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.20562950699291</v>
+        <v>16.14451756741729</v>
       </c>
       <c r="C16">
-        <v>10.76085420393313</v>
+        <v>11.29364424060408</v>
       </c>
       <c r="D16">
-        <v>5.898000918723518</v>
+        <v>5.889365126297523</v>
       </c>
       <c r="E16">
-        <v>5.35961629956792</v>
+        <v>5.747734743504054</v>
       </c>
       <c r="F16">
-        <v>28.67590542222648</v>
+        <v>25.34978043966277</v>
       </c>
       <c r="G16">
-        <v>2.113490311117507</v>
+        <v>6.425193483550045</v>
       </c>
       <c r="H16">
-        <v>6.776403580628775</v>
+        <v>6.669245936909728</v>
       </c>
       <c r="I16">
-        <v>3.346763750760466</v>
+        <v>3.014189118979753</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>20.22930980174885</v>
+        <v>17.73141294797414</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.74913837183236</v>
       </c>
       <c r="M16">
-        <v>14.89290841465988</v>
+        <v>12.56967082288862</v>
       </c>
       <c r="N16">
-        <v>4.939056984586031</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>14.58667315260923</v>
       </c>
       <c r="P16">
-        <v>13.82887164134475</v>
+        <v>5.11683476632186</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>13.08234850278162</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.10006972181715</v>
+        <v>16.09800227287208</v>
       </c>
       <c r="C17">
-        <v>10.42817363309214</v>
+        <v>11.13581958708215</v>
       </c>
       <c r="D17">
-        <v>5.832695861806338</v>
+        <v>5.74556839706705</v>
       </c>
       <c r="E17">
-        <v>5.244919965221367</v>
+        <v>5.654601933529436</v>
       </c>
       <c r="F17">
-        <v>29.00107064843468</v>
+        <v>25.98584200691017</v>
       </c>
       <c r="G17">
-        <v>2.115349395074682</v>
+        <v>5.856499555945309</v>
       </c>
       <c r="H17">
-        <v>6.084762301527215</v>
+        <v>5.952849991793086</v>
       </c>
       <c r="I17">
-        <v>3.417547440124925</v>
+        <v>3.061803003945748</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>20.58381518933649</v>
+        <v>18.22390847064952</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.15942989485803</v>
       </c>
       <c r="M17">
-        <v>14.68628812621004</v>
+        <v>12.89114876608061</v>
       </c>
       <c r="N17">
-        <v>5.205138795864596</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>14.4853790058989</v>
       </c>
       <c r="P17">
-        <v>13.99331309389128</v>
+        <v>5.40002631150135</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>13.23194762546892</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.35872369358993</v>
+        <v>16.33292421249767</v>
       </c>
       <c r="C18">
-        <v>10.09190506494633</v>
+        <v>10.91043138305217</v>
       </c>
       <c r="D18">
-        <v>5.746895983167631</v>
+        <v>5.604858471304039</v>
       </c>
       <c r="E18">
-        <v>5.329840434110442</v>
+        <v>5.696510080234929</v>
       </c>
       <c r="F18">
-        <v>30.01602552860881</v>
+        <v>27.02022463740187</v>
       </c>
       <c r="G18">
-        <v>2.115874621177727</v>
+        <v>5.710923286948937</v>
       </c>
       <c r="H18">
-        <v>4.905980012877119</v>
+        <v>4.738314288003396</v>
       </c>
       <c r="I18">
-        <v>3.42440847872119</v>
+        <v>3.060721853673934</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.37830578054379</v>
+        <v>18.96859224815669</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.74252711689336</v>
       </c>
       <c r="M18">
-        <v>14.71917142244425</v>
+        <v>13.43201190445436</v>
       </c>
       <c r="N18">
-        <v>5.81602841282056</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>14.54330557852902</v>
       </c>
       <c r="P18">
-        <v>14.23720073300565</v>
+        <v>6.015081388730921</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>13.4133968482276</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.85111567799558</v>
+        <v>16.75349929264853</v>
       </c>
       <c r="C19">
-        <v>9.810755842104225</v>
+        <v>10.70626654441028</v>
       </c>
       <c r="D19">
-        <v>5.675254644280422</v>
+        <v>5.488943647106562</v>
       </c>
       <c r="E19">
-        <v>5.853244897026365</v>
+        <v>6.116488759277082</v>
       </c>
       <c r="F19">
-        <v>31.42362936196845</v>
+        <v>28.28350874758031</v>
       </c>
       <c r="G19">
-        <v>2.115251473967612</v>
+        <v>5.599958149814202</v>
       </c>
       <c r="H19">
-        <v>3.546250039849268</v>
+        <v>3.322520828413241</v>
       </c>
       <c r="I19">
-        <v>3.393827153522475</v>
+        <v>3.038785724337316</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>22.42228623179049</v>
+        <v>19.8546674520231</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.41649383596554</v>
       </c>
       <c r="M19">
-        <v>14.93036072900356</v>
+        <v>14.10265243990753</v>
       </c>
       <c r="N19">
-        <v>6.717849290876207</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>14.7331372131145</v>
       </c>
       <c r="P19">
-        <v>14.53787141400649</v>
+        <v>6.913376599733734</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>13.62110626161457</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.01222269879177</v>
+        <v>17.7181172882463</v>
       </c>
       <c r="C20">
-        <v>9.664537273300718</v>
+        <v>10.55462307745232</v>
       </c>
       <c r="D20">
-        <v>5.631287847810955</v>
+        <v>5.408799487558996</v>
       </c>
       <c r="E20">
-        <v>7.301029840245719</v>
+        <v>7.394308281587366</v>
       </c>
       <c r="F20">
-        <v>33.97302108674104</v>
+        <v>30.25606311753742</v>
       </c>
       <c r="G20">
-        <v>2.111369081016904</v>
+        <v>5.488937520061551</v>
       </c>
       <c r="H20">
-        <v>2.185447378993123</v>
+        <v>1.894967052699698</v>
       </c>
       <c r="I20">
-        <v>3.226807283130093</v>
+        <v>2.918405731911207</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>24.20761585335217</v>
+        <v>21.17286852055348</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.34511810134622</v>
       </c>
       <c r="M20">
-        <v>15.64018290349552</v>
+        <v>15.18781564875781</v>
       </c>
       <c r="N20">
-        <v>8.286889476999526</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>15.30339614768825</v>
       </c>
       <c r="P20">
-        <v>15.00263659069746</v>
+        <v>8.460573843633801</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>13.87942240461044</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.17420189845063</v>
+        <v>18.4426929358551</v>
       </c>
       <c r="C21">
-        <v>10.28199719256142</v>
+        <v>10.49741713123012</v>
       </c>
       <c r="D21">
-        <v>5.654329605129799</v>
+        <v>5.592685483058698</v>
       </c>
       <c r="E21">
-        <v>7.774056562526464</v>
+        <v>7.927969908118344</v>
       </c>
       <c r="F21">
-        <v>35.38897973205736</v>
+        <v>29.72413534021793</v>
       </c>
       <c r="G21">
-        <v>2.104377392789191</v>
+        <v>10.54514926058828</v>
       </c>
       <c r="H21">
-        <v>1.850179543001256</v>
+        <v>1.655088204374521</v>
       </c>
       <c r="I21">
-        <v>2.952586518395887</v>
+        <v>2.750525190706357</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>24.90778352097184</v>
+        <v>20.65956690190757</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>15.76418871272325</v>
       </c>
       <c r="M21">
-        <v>16.64941657886277</v>
+        <v>15.03532415585307</v>
       </c>
       <c r="N21">
-        <v>8.77900782790319</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>15.77110860697643</v>
       </c>
       <c r="P21">
-        <v>14.95983548610237</v>
+        <v>8.861892422625319</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>13.49098392640203</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.8857742729787</v>
+        <v>18.86302345401057</v>
       </c>
       <c r="C22">
-        <v>10.67464734593441</v>
+        <v>10.43833046075258</v>
       </c>
       <c r="D22">
-        <v>5.668903628885811</v>
+        <v>5.740542074165671</v>
       </c>
       <c r="E22">
-        <v>8.006612233310653</v>
+        <v>8.222759143303872</v>
       </c>
       <c r="F22">
-        <v>36.24643158587008</v>
+        <v>29.24495711695806</v>
       </c>
       <c r="G22">
-        <v>2.099935690695409</v>
+        <v>15.18604154216482</v>
       </c>
       <c r="H22">
-        <v>1.649172718796666</v>
+        <v>1.605037222288637</v>
       </c>
       <c r="I22">
-        <v>2.768899049383393</v>
+        <v>2.631380540980356</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>25.32320524216983</v>
+        <v>20.24387266155289</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>15.33873851587861</v>
       </c>
       <c r="M22">
-        <v>17.27010962412151</v>
+        <v>14.86889707717</v>
       </c>
       <c r="N22">
-        <v>9.020733088296836</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.02986670421696</v>
       </c>
       <c r="P22">
-        <v>14.92038666410413</v>
+        <v>9.043011529048373</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>13.229650822225</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.52815599449697</v>
+        <v>18.69671829503815</v>
       </c>
       <c r="C23">
-        <v>10.45144541347718</v>
+        <v>10.53054369007813</v>
       </c>
       <c r="D23">
-        <v>5.660990645408361</v>
+        <v>5.641427663047809</v>
       </c>
       <c r="E23">
-        <v>7.888408156944722</v>
+        <v>8.05131573070647</v>
       </c>
       <c r="F23">
-        <v>35.8367998662826</v>
+        <v>29.73666739579781</v>
       </c>
       <c r="G23">
-        <v>2.102263966633203</v>
+        <v>11.89761340455432</v>
       </c>
       <c r="H23">
-        <v>1.754520166557865</v>
+        <v>1.584722664626009</v>
       </c>
       <c r="I23">
-        <v>2.854300023025235</v>
+        <v>2.676416497937667</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>25.14004851903849</v>
+        <v>20.61106623101884</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>15.66929791262205</v>
       </c>
       <c r="M23">
-        <v>16.94829698370733</v>
+        <v>15.07293833706731</v>
       </c>
       <c r="N23">
-        <v>8.89181788177787</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>15.95124515405731</v>
       </c>
       <c r="P23">
-        <v>14.95396548133488</v>
+        <v>8.954344220268228</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>13.40472856078651</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.08528376628192</v>
+        <v>17.78484131626039</v>
       </c>
       <c r="C24">
-        <v>9.604886680896852</v>
+        <v>10.50733722800955</v>
       </c>
       <c r="D24">
-        <v>5.62901845725762</v>
+        <v>5.395917044395236</v>
       </c>
       <c r="E24">
-        <v>7.418975084521448</v>
+        <v>7.500866515338189</v>
       </c>
       <c r="F24">
-        <v>34.18709518372093</v>
+        <v>30.46252462242023</v>
       </c>
       <c r="G24">
-        <v>2.111279439343348</v>
+        <v>5.452425621549092</v>
       </c>
       <c r="H24">
-        <v>2.163332540104761</v>
+        <v>1.872488133251048</v>
       </c>
       <c r="I24">
-        <v>3.205770120801196</v>
+        <v>2.893804266193624</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>24.37929027789725</v>
+        <v>21.32950219063024</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.46583734128189</v>
       </c>
       <c r="M24">
-        <v>15.66503800824252</v>
+        <v>15.30429015353475</v>
       </c>
       <c r="N24">
-        <v>8.389087467752763</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>15.32854474876244</v>
       </c>
       <c r="P24">
-        <v>15.06265095645814</v>
+        <v>8.563366604451433</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>13.9255063836965</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.4069600928234</v>
+        <v>16.26359492269712</v>
       </c>
       <c r="C25">
-        <v>8.637109048124394</v>
+        <v>9.554124490098822</v>
       </c>
       <c r="D25">
-        <v>5.589350964658845</v>
+        <v>5.265697195445806</v>
       </c>
       <c r="E25">
-        <v>6.883891830709099</v>
+        <v>7.079280913797699</v>
       </c>
       <c r="F25">
-        <v>32.36468361749983</v>
+        <v>29.06187450704943</v>
       </c>
       <c r="G25">
-        <v>2.121329726259042</v>
+        <v>6.389917179106405</v>
       </c>
       <c r="H25">
-        <v>2.620924129679063</v>
+        <v>2.245062698230667</v>
       </c>
       <c r="I25">
-        <v>3.601829003411475</v>
+        <v>3.194032048468746</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.54996193335195</v>
+        <v>20.83840619176658</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.3996052851182</v>
       </c>
       <c r="M25">
-        <v>14.26788524052197</v>
+        <v>14.58773558556806</v>
       </c>
       <c r="N25">
-        <v>7.814579921795557</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>13.96912553363203</v>
       </c>
       <c r="P25">
-        <v>15.18425319629463</v>
+        <v>8.020553493801632</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>14.1316784701111</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
